--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WeChat Files\wxid_dr7fd3h8jsoh21\FileStorage\File\2020-10\时间序列预测及分析2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JupyterProject\DataMingZhang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74145F6D-83C8-4BD8-B957-7B5CFF7CA2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73219D3-9B75-477C-94E6-721E7265ADBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:MP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29896,6 +29896,48 @@
       <c r="F30" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G30" s="1">
+        <v>1108.8599999999999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1108.57</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1108.6500000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1108.81</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1108.57</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1108.75</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1109.44</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1108.8699999999999</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1108.6600000000001</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1108.6600000000001</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1108.5899999999999</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1108.82</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1108.55</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1108.55</v>
+      </c>
       <c r="U30" s="1">
         <v>1110.08</v>
       </c>
@@ -30914,6 +30956,48 @@
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1089.7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1089.92</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1090.05</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1089.44</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1089.29</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1089.52</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1089.1500000000001</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1089.3900000000001</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1089.72</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1090.28</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1090.01</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1089.0899999999999</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1088.75</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1087.96</v>
       </c>
       <c r="U31" s="1">
         <v>1091.55</v>
